--- a/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu80_sigma20/R100/Intermodal_EGS_data_dynamic_lognormal_mu80_sigma20_table55.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu80_sigma20/R100/Intermodal_EGS_data_dynamic_lognormal_mu80_sigma20_table55.xlsx
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[179, 10428681800222237935009971]</t>
+          <t>[179, 33397177375114708635066868014411333562148061363]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[179, 10428681800222237935009971]</t>
+          <t>[179, 33397177375114708635066868014411333562148061363]</t>
         </is>
       </c>
       <c r="G3" t="n">
